--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_1_9_summer.xlsx
@@ -422,11 +422,14 @@
       <c r="B2">
         <v>2008</v>
       </c>
+      <c r="C2">
+        <v>1.247512323997491</v>
+      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>-0.2783718414533731</v>
+        <v>2.82953744009995</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +440,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-1.030732524904654</v>
+        <v>0.5917823527752164</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-0.1873765424078244</v>
+        <v>-1.985049937499994</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +457,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>-0.05090530858298248</v>
+        <v>1.985742476411234</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>-0.1887859575859907</v>
+        <v>7.819356632099961</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +474,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>-0.280463229596406</v>
+        <v>-0.7518797681958955</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>-1.590425574400001</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +491,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>-0.1077084210717283</v>
+        <v>-0.5765930039052902</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>0.4006004000999486</v>
+        <v>-1.590425574400001</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +508,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>0.04989996249373796</v>
+        <v>-0.07642926654481963</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-0.3994003998999851</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +525,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>-0.2754672193867047</v>
+        <v>0.9274109147535681</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2.829537440099972</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +542,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>0.07385387613489947</v>
+        <v>-0.5259734324162268</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>0.001214882944333695</v>
+        <v>-1.194610791900008</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +559,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>-0.0956500825467832</v>
+        <v>0.07456754038981384</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>-0.2481050815573704</v>
+        <v>0.4006004000999708</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +576,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>-0.2679944319537775</v>
+        <v>-0.07666472728168339</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>-0.3424919602869725</v>
+        <v>-1.590425574400012</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +593,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>0.1318946037958568</v>
+        <v>-0.2004754673795017</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>0.1625577003677492</v>
+        <v>-0.3994003998999962</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +610,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>-0.9629592161347511</v>
+        <v>-0.7283174404322912</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>-1.274104623898353</v>
+        <v>-2.378486270400004</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +627,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>0.2788721266884897</v>
+        <v>-0.03096525636255842</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>2.205865523273731</v>
+        <v>1.205410808099971</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.8905177160601796</v>
+        <v>-0.04074803603358879</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-0.7124653490690802</v>
+        <v>-0.2354831990173722</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>-1.657917050336966</v>
+        <v>1.296559640836992</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>0.2089364391896886</v>
+        <v>0.439921111559638</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.6108712274484063</v>
+        <v>0.8143067496459322</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-0.1009004697362315</v>
+        <v>-0.05551881767973388</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.06871430377434207</v>
+        <v>-1.077932696718564</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>-0.02296559878420812</v>
+        <v>-0.02296885644381685</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.4155490690009644</v>
+        <v>0.4743170952486997</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.01968817189477168</v>
+        <v>-0.324019587165425</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_1_9_summer.xlsx
@@ -644,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.04074803603358879</v>
+        <v>1.135350354669384</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-0.2354831990173722</v>
+        <v>5.718701441600005</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>1.296559640836992</v>
+        <v>2.185449115957439</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>0.439921111559638</v>
+        <v>4.887093273600018</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>0.8143067496459322</v>
+        <v>0.8255040266054614</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-0.05551881767973388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-1.077932696718564</v>
+        <v>-1.073387923554092</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>-0.02296885644381685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.4743170952486997</v>
+        <v>-0.1808585347669145</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-0.324019587165425</v>
+        <v>-3.55169094390001</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_1_9_summer.xlsx
@@ -422,14 +422,11 @@
       <c r="B2">
         <v>2008</v>
       </c>
-      <c r="C2">
-        <v>1.247512323997491</v>
-      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>2.82953744009995</v>
+        <v>2.829537440099972</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,13 +437,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>0.5917823527752164</v>
+        <v>0.5917823527752386</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-1.985049937499994</v>
+        <v>-1.985049937500005</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -474,7 +471,7 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>-0.7518797681958955</v>
+        <v>-0.7518797681959066</v>
       </c>
       <c r="D5">
         <v>2012</v>
@@ -491,7 +488,7 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>-0.5765930039052902</v>
+        <v>-0.5765930039053124</v>
       </c>
       <c r="D6">
         <v>2013</v>
@@ -508,13 +505,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>-0.07642926654481963</v>
+        <v>-0.07642926654479743</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>-0.3994003998999851</v>
+        <v>-0.3994003999000184</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -525,13 +522,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>0.9274109147535681</v>
+        <v>0.9274109147535459</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>2.829537440099972</v>
+        <v>2.82953744009995</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -548,7 +545,7 @@
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>-1.194610791900008</v>
+        <v>-1.194610791899997</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -576,7 +573,7 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>-0.07666472728168339</v>
+        <v>-0.07666472728170559</v>
       </c>
       <c r="D11">
         <v>2018</v>
@@ -599,7 +596,7 @@
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>-0.3994003998999962</v>
+        <v>-0.3994003999000073</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -610,13 +607,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>-0.7283174404322912</v>
+        <v>-0.7283174404323023</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>-2.378486270400004</v>
+        <v>-2.378486270399993</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,13 +624,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-0.03096525636255842</v>
+        <v>-0.03096525636256953</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>1.205410808099971</v>
+        <v>1.205410808099949</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -644,13 +641,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>1.135350354669384</v>
+        <v>1.135350354669407</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>5.718701441600005</v>
+        <v>5.718701441600027</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,7 +658,7 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>2.185449115957439</v>
+        <v>2.185449115957461</v>
       </c>
       <c r="D16">
         <v>2023</v>
@@ -718,7 +715,7 @@
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-3.55169094390001</v>
+        <v>-3.551690943900021</v>
       </c>
     </row>
   </sheetData>
